--- a/results/parity_opp_update_2018-08-28/opp_fixed/propublica-recidivism_race _mean_std.xlsx
+++ b/results/parity_opp_update_2018-08-28/opp_fixed/propublica-recidivism_race _mean_std.xlsx
@@ -133,16 +133,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0.030448055663866436</v>
+        <v>0.03211902274834935</v>
       </c>
       <c r="D2" t="n">
-        <v>1.15612346</v>
+        <v>1.2051579308</v>
       </c>
       <c r="E2" t="n">
-        <v>0.011468280226097477</v>
+        <v>0.005443471899578538</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6263976666</v>
+        <v>0.6706854642</v>
       </c>
     </row>
     <row r="3">
@@ -153,16 +153,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06294219358562762</v>
+        <v>0.04083941044420849</v>
       </c>
       <c r="D3" t="n">
-        <v>1.1909315101</v>
+        <v>1.2050582953</v>
       </c>
       <c r="E3" t="n">
-        <v>0.010343327946152567</v>
+        <v>0.008028998283540001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6235780263</v>
+        <v>0.6684978123</v>
       </c>
     </row>
     <row r="4">
@@ -173,16 +173,16 @@
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03189547190525017</v>
+        <v>0.02570970469361419</v>
       </c>
       <c r="D4" t="n">
-        <v>1.1865535994</v>
+        <v>1.2212020127</v>
       </c>
       <c r="E4" t="n">
-        <v>0.009954567160018395</v>
+        <v>0.008250151883430394</v>
       </c>
       <c r="F4" t="n">
-        <v>0.648906174</v>
+        <v>0.672338357</v>
       </c>
     </row>
     <row r="5">
